--- a/branches/Itelios/duracao.xlsx
+++ b/branches/Itelios/duracao.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -386,7 +386,7 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">NOW()</f>
-        <v>41927.932155439812</v>
+        <v>41928.338821296296</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -394,8 +394,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">B2-B1</f>
-        <v>5.0210995366796851E-2</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
   </sheetData>
